--- a/recognized_sets/recognized_qu.xlsx
+++ b/recognized_sets/recognized_qu.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="28">
   <si>
     <t>text</t>
   </si>
@@ -75,6 +75,27 @@
   </si>
   <si>
     <t>на   улица   жара ?</t>
+  </si>
+  <si>
+    <t>спасибо</t>
+  </si>
+  <si>
+    <t>распознавать</t>
+  </si>
+  <si>
+    <t>узнавать</t>
+  </si>
+  <si>
+    <t>стоять</t>
+  </si>
+  <si>
+    <t>стоять !</t>
+  </si>
+  <si>
+    <t>садиться !</t>
+  </si>
+  <si>
+    <t>садиться</t>
   </si>
   <si>
     <t>Вопрос</t>
@@ -435,7 +456,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C31"/>
+  <dimension ref="A1:C55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -457,7 +478,7 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -468,7 +489,7 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -479,7 +500,7 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -490,7 +511,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -501,7 +522,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -512,7 +533,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -523,7 +544,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -534,7 +555,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -545,7 +566,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -556,7 +577,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -567,7 +588,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -578,7 +599,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -589,7 +610,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -600,7 +621,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -611,7 +632,7 @@
         <v>3</v>
       </c>
       <c r="B16" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -622,7 +643,7 @@
         <v>3</v>
       </c>
       <c r="B17" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -633,7 +654,7 @@
         <v>14</v>
       </c>
       <c r="B18" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -644,7 +665,7 @@
         <v>15</v>
       </c>
       <c r="B19" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -655,7 +676,7 @@
         <v>16</v>
       </c>
       <c r="B20" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C20">
         <v>1</v>
@@ -666,7 +687,7 @@
         <v>17</v>
       </c>
       <c r="B21" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -677,7 +698,7 @@
         <v>3</v>
       </c>
       <c r="B22" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C22">
         <v>1</v>
@@ -688,7 +709,7 @@
         <v>14</v>
       </c>
       <c r="B23" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C23">
         <v>1</v>
@@ -699,7 +720,7 @@
         <v>18</v>
       </c>
       <c r="B24" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C24">
         <v>1</v>
@@ -710,7 +731,7 @@
         <v>19</v>
       </c>
       <c r="B25" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C25">
         <v>1</v>
@@ -721,7 +742,7 @@
         <v>3</v>
       </c>
       <c r="B26" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C26">
         <v>1</v>
@@ -732,7 +753,7 @@
         <v>14</v>
       </c>
       <c r="B27" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C27">
         <v>1</v>
@@ -743,7 +764,7 @@
         <v>14</v>
       </c>
       <c r="B28" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C28">
         <v>1</v>
@@ -754,7 +775,7 @@
         <v>14</v>
       </c>
       <c r="B29" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C29">
         <v>1</v>
@@ -765,7 +786,7 @@
         <v>14</v>
       </c>
       <c r="B30" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C30">
         <v>1</v>
@@ -776,9 +797,273 @@
         <v>14</v>
       </c>
       <c r="B31" t="s">
+        <v>27</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32" t="s">
+        <v>27</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" t="s">
+        <v>3</v>
+      </c>
+      <c r="B33" t="s">
+        <v>27</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" t="s">
+        <v>3</v>
+      </c>
+      <c r="B34" t="s">
+        <v>27</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" t="s">
+        <v>3</v>
+      </c>
+      <c r="B35" t="s">
+        <v>27</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" t="s">
+        <v>3</v>
+      </c>
+      <c r="B36" t="s">
+        <v>27</v>
+      </c>
+      <c r="C36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" t="s">
         <v>20</v>
       </c>
-      <c r="C31">
+      <c r="B37" t="s">
+        <v>27</v>
+      </c>
+      <c r="C37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" t="s">
+        <v>3</v>
+      </c>
+      <c r="B38" t="s">
+        <v>27</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" t="s">
+        <v>3</v>
+      </c>
+      <c r="B39" t="s">
+        <v>27</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" t="s">
+        <v>3</v>
+      </c>
+      <c r="B40" t="s">
+        <v>27</v>
+      </c>
+      <c r="C40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" t="s">
+        <v>14</v>
+      </c>
+      <c r="B41" t="s">
+        <v>27</v>
+      </c>
+      <c r="C41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" t="s">
+        <v>21</v>
+      </c>
+      <c r="B42" t="s">
+        <v>27</v>
+      </c>
+      <c r="C42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" t="s">
+        <v>21</v>
+      </c>
+      <c r="B43" t="s">
+        <v>27</v>
+      </c>
+      <c r="C43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" t="s">
+        <v>21</v>
+      </c>
+      <c r="B44" t="s">
+        <v>27</v>
+      </c>
+      <c r="C44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" t="s">
+        <v>21</v>
+      </c>
+      <c r="B45" t="s">
+        <v>27</v>
+      </c>
+      <c r="C45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" t="s">
+        <v>22</v>
+      </c>
+      <c r="B46" t="s">
+        <v>27</v>
+      </c>
+      <c r="C46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" t="s">
+        <v>3</v>
+      </c>
+      <c r="B47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" t="s">
+        <v>9</v>
+      </c>
+      <c r="B48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" t="s">
+        <v>3</v>
+      </c>
+      <c r="B49" t="s">
+        <v>27</v>
+      </c>
+      <c r="C49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" t="s">
+        <v>21</v>
+      </c>
+      <c r="B50" t="s">
+        <v>27</v>
+      </c>
+      <c r="C50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" t="s">
+        <v>21</v>
+      </c>
+      <c r="B51" t="s">
+        <v>27</v>
+      </c>
+      <c r="C51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" t="s">
+        <v>23</v>
+      </c>
+      <c r="B52" t="s">
+        <v>27</v>
+      </c>
+      <c r="C52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" t="s">
+        <v>24</v>
+      </c>
+      <c r="B53" t="s">
+        <v>27</v>
+      </c>
+      <c r="C53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" t="s">
+        <v>25</v>
+      </c>
+      <c r="B54" t="s">
+        <v>27</v>
+      </c>
+      <c r="C54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" t="s">
+        <v>26</v>
+      </c>
+      <c r="B55" t="s">
+        <v>27</v>
+      </c>
+      <c r="C55">
         <v>1</v>
       </c>
     </row>

--- a/recognized_sets/recognized_qu.xlsx
+++ b/recognized_sets/recognized_qu.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="37">
   <si>
     <t>text</t>
   </si>
@@ -96,6 +96,33 @@
   </si>
   <si>
     <t>садиться</t>
+  </si>
+  <si>
+    <t>мис   распознавать</t>
+  </si>
+  <si>
+    <t>манда</t>
+  </si>
+  <si>
+    <t>у   я   вопрос</t>
+  </si>
+  <si>
+    <t>да   простой</t>
+  </si>
+  <si>
+    <t>может   но   потом</t>
+  </si>
+  <si>
+    <t>я   бы   она   в   чат   на   12к   тело   пускать   если   бы   она   молчать</t>
+  </si>
+  <si>
+    <t>какой   инф ? )</t>
+  </si>
+  <si>
+    <t>ну   блять   текст ,  слово   и   прочее ,  ты   же   для   что   она   делать ?   что   бы   она   в   чат   отвечать ?</t>
+  </si>
+  <si>
+    <t>/ comandclean</t>
   </si>
   <si>
     <t>Вопрос</t>
@@ -456,7 +483,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C55"/>
+  <dimension ref="A1:C78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -478,7 +505,7 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -489,7 +516,7 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -500,7 +527,7 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -511,7 +538,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -522,7 +549,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -533,7 +560,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -544,7 +571,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -555,7 +582,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -566,7 +593,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -577,7 +604,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -588,7 +615,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -599,7 +626,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -610,7 +637,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -621,7 +648,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -632,7 +659,7 @@
         <v>3</v>
       </c>
       <c r="B16" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -643,7 +670,7 @@
         <v>3</v>
       </c>
       <c r="B17" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -654,7 +681,7 @@
         <v>14</v>
       </c>
       <c r="B18" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -665,7 +692,7 @@
         <v>15</v>
       </c>
       <c r="B19" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -676,7 +703,7 @@
         <v>16</v>
       </c>
       <c r="B20" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="C20">
         <v>1</v>
@@ -687,7 +714,7 @@
         <v>17</v>
       </c>
       <c r="B21" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -698,7 +725,7 @@
         <v>3</v>
       </c>
       <c r="B22" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="C22">
         <v>1</v>
@@ -709,7 +736,7 @@
         <v>14</v>
       </c>
       <c r="B23" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="C23">
         <v>1</v>
@@ -720,7 +747,7 @@
         <v>18</v>
       </c>
       <c r="B24" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="C24">
         <v>1</v>
@@ -731,7 +758,7 @@
         <v>19</v>
       </c>
       <c r="B25" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="C25">
         <v>1</v>
@@ -742,7 +769,7 @@
         <v>3</v>
       </c>
       <c r="B26" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="C26">
         <v>1</v>
@@ -753,7 +780,7 @@
         <v>14</v>
       </c>
       <c r="B27" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="C27">
         <v>1</v>
@@ -764,7 +791,7 @@
         <v>14</v>
       </c>
       <c r="B28" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="C28">
         <v>1</v>
@@ -775,7 +802,7 @@
         <v>14</v>
       </c>
       <c r="B29" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="C29">
         <v>1</v>
@@ -786,7 +813,7 @@
         <v>14</v>
       </c>
       <c r="B30" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="C30">
         <v>1</v>
@@ -797,7 +824,7 @@
         <v>14</v>
       </c>
       <c r="B31" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="C31">
         <v>1</v>
@@ -808,7 +835,7 @@
         <v>3</v>
       </c>
       <c r="B32" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="C32">
         <v>1</v>
@@ -819,7 +846,7 @@
         <v>3</v>
       </c>
       <c r="B33" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="C33">
         <v>1</v>
@@ -830,7 +857,7 @@
         <v>3</v>
       </c>
       <c r="B34" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="C34">
         <v>1</v>
@@ -841,7 +868,7 @@
         <v>3</v>
       </c>
       <c r="B35" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="C35">
         <v>1</v>
@@ -852,7 +879,7 @@
         <v>3</v>
       </c>
       <c r="B36" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="C36">
         <v>1</v>
@@ -863,7 +890,7 @@
         <v>20</v>
       </c>
       <c r="B37" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="C37">
         <v>1</v>
@@ -874,7 +901,7 @@
         <v>3</v>
       </c>
       <c r="B38" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="C38">
         <v>1</v>
@@ -885,7 +912,7 @@
         <v>3</v>
       </c>
       <c r="B39" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="C39">
         <v>1</v>
@@ -896,7 +923,7 @@
         <v>3</v>
       </c>
       <c r="B40" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="C40">
         <v>1</v>
@@ -907,7 +934,7 @@
         <v>14</v>
       </c>
       <c r="B41" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="C41">
         <v>1</v>
@@ -918,7 +945,7 @@
         <v>21</v>
       </c>
       <c r="B42" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="C42">
         <v>1</v>
@@ -929,7 +956,7 @@
         <v>21</v>
       </c>
       <c r="B43" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="C43">
         <v>1</v>
@@ -940,7 +967,7 @@
         <v>21</v>
       </c>
       <c r="B44" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="C44">
         <v>1</v>
@@ -951,7 +978,7 @@
         <v>21</v>
       </c>
       <c r="B45" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="C45">
         <v>1</v>
@@ -962,7 +989,7 @@
         <v>22</v>
       </c>
       <c r="B46" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="C46">
         <v>1</v>
@@ -973,7 +1000,7 @@
         <v>3</v>
       </c>
       <c r="B47" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="C47">
         <v>1</v>
@@ -984,7 +1011,7 @@
         <v>9</v>
       </c>
       <c r="B48" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="C48">
         <v>1</v>
@@ -995,7 +1022,7 @@
         <v>3</v>
       </c>
       <c r="B49" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="C49">
         <v>1</v>
@@ -1006,7 +1033,7 @@
         <v>21</v>
       </c>
       <c r="B50" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="C50">
         <v>1</v>
@@ -1017,7 +1044,7 @@
         <v>21</v>
       </c>
       <c r="B51" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="C51">
         <v>1</v>
@@ -1028,7 +1055,7 @@
         <v>23</v>
       </c>
       <c r="B52" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="C52">
         <v>1</v>
@@ -1039,7 +1066,7 @@
         <v>24</v>
       </c>
       <c r="B53" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="C53">
         <v>1</v>
@@ -1050,7 +1077,7 @@
         <v>25</v>
       </c>
       <c r="B54" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="C54">
         <v>1</v>
@@ -1061,9 +1088,262 @@
         <v>26</v>
       </c>
       <c r="B55" t="s">
+        <v>36</v>
+      </c>
+      <c r="C55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" t="s">
         <v>27</v>
       </c>
-      <c r="C55">
+      <c r="B56" t="s">
+        <v>36</v>
+      </c>
+      <c r="C56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" t="s">
+        <v>27</v>
+      </c>
+      <c r="B57" t="s">
+        <v>36</v>
+      </c>
+      <c r="C57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" t="s">
+        <v>21</v>
+      </c>
+      <c r="B58" t="s">
+        <v>36</v>
+      </c>
+      <c r="C58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" t="s">
+        <v>27</v>
+      </c>
+      <c r="B59" t="s">
+        <v>36</v>
+      </c>
+      <c r="C59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" t="s">
+        <v>21</v>
+      </c>
+      <c r="B60" t="s">
+        <v>36</v>
+      </c>
+      <c r="C60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" t="s">
+        <v>26</v>
+      </c>
+      <c r="B61" t="s">
+        <v>36</v>
+      </c>
+      <c r="C61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" t="s">
+        <v>21</v>
+      </c>
+      <c r="B62" t="s">
+        <v>36</v>
+      </c>
+      <c r="C62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" t="s">
+        <v>21</v>
+      </c>
+      <c r="B63" t="s">
+        <v>36</v>
+      </c>
+      <c r="C63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" t="s">
+        <v>28</v>
+      </c>
+      <c r="B64" t="s">
+        <v>36</v>
+      </c>
+      <c r="C64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" t="s">
+        <v>9</v>
+      </c>
+      <c r="B65" t="s">
+        <v>36</v>
+      </c>
+      <c r="C65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" t="s">
+        <v>29</v>
+      </c>
+      <c r="B66" t="s">
+        <v>36</v>
+      </c>
+      <c r="C66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" t="s">
+        <v>9</v>
+      </c>
+      <c r="B67" t="s">
+        <v>36</v>
+      </c>
+      <c r="C67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" t="s">
+        <v>30</v>
+      </c>
+      <c r="B68" t="s">
+        <v>36</v>
+      </c>
+      <c r="C68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" t="s">
+        <v>31</v>
+      </c>
+      <c r="B69" t="s">
+        <v>36</v>
+      </c>
+      <c r="C69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" t="s">
+        <v>32</v>
+      </c>
+      <c r="B70" t="s">
+        <v>36</v>
+      </c>
+      <c r="C70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" t="s">
+        <v>9</v>
+      </c>
+      <c r="B71" t="s">
+        <v>36</v>
+      </c>
+      <c r="C71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" t="s">
+        <v>33</v>
+      </c>
+      <c r="B72" t="s">
+        <v>36</v>
+      </c>
+      <c r="C72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" t="s">
+        <v>34</v>
+      </c>
+      <c r="B73" t="s">
+        <v>36</v>
+      </c>
+      <c r="C73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" t="s">
+        <v>21</v>
+      </c>
+      <c r="B74" t="s">
+        <v>36</v>
+      </c>
+      <c r="C74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" t="s">
+        <v>35</v>
+      </c>
+      <c r="B75" t="s">
+        <v>36</v>
+      </c>
+      <c r="C75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" t="s">
+        <v>3</v>
+      </c>
+      <c r="B76" t="s">
+        <v>36</v>
+      </c>
+      <c r="C76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77" t="s">
+        <v>21</v>
+      </c>
+      <c r="B77" t="s">
+        <v>36</v>
+      </c>
+      <c r="C77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78" t="s">
+        <v>27</v>
+      </c>
+      <c r="B78" t="s">
+        <v>36</v>
+      </c>
+      <c r="C78">
         <v>1</v>
       </c>
     </row>

--- a/recognized_sets/recognized_qu.xlsx
+++ b/recognized_sets/recognized_qu.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="42">
   <si>
     <t>text</t>
   </si>
@@ -123,6 +123,21 @@
   </si>
   <si>
     <t>/ comandclean</t>
+  </si>
+  <si>
+    <t>как   оно ?</t>
+  </si>
+  <si>
+    <t>фпыафпфыпф</t>
+  </si>
+  <si>
+    <t>мис   чо   они   в   итог   сделать   с   этот   хуйня   ?   чат ?</t>
+  </si>
+  <si>
+    <t>мис   узнавать</t>
+  </si>
+  <si>
+    <t>мис   спрашивать</t>
   </si>
   <si>
     <t>Вопрос</t>
@@ -483,7 +498,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C78"/>
+  <dimension ref="A1:C89"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -505,7 +520,7 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -516,7 +531,7 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -527,7 +542,7 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -538,7 +553,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -549,7 +564,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -560,7 +575,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -571,7 +586,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -582,7 +597,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -593,7 +608,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -604,7 +619,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -615,7 +630,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -626,7 +641,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -637,7 +652,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -648,7 +663,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -659,7 +674,7 @@
         <v>3</v>
       </c>
       <c r="B16" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -670,7 +685,7 @@
         <v>3</v>
       </c>
       <c r="B17" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -681,7 +696,7 @@
         <v>14</v>
       </c>
       <c r="B18" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -692,7 +707,7 @@
         <v>15</v>
       </c>
       <c r="B19" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -703,7 +718,7 @@
         <v>16</v>
       </c>
       <c r="B20" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C20">
         <v>1</v>
@@ -714,7 +729,7 @@
         <v>17</v>
       </c>
       <c r="B21" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -725,7 +740,7 @@
         <v>3</v>
       </c>
       <c r="B22" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C22">
         <v>1</v>
@@ -736,7 +751,7 @@
         <v>14</v>
       </c>
       <c r="B23" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C23">
         <v>1</v>
@@ -747,7 +762,7 @@
         <v>18</v>
       </c>
       <c r="B24" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C24">
         <v>1</v>
@@ -758,7 +773,7 @@
         <v>19</v>
       </c>
       <c r="B25" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C25">
         <v>1</v>
@@ -769,7 +784,7 @@
         <v>3</v>
       </c>
       <c r="B26" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C26">
         <v>1</v>
@@ -780,7 +795,7 @@
         <v>14</v>
       </c>
       <c r="B27" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C27">
         <v>1</v>
@@ -791,7 +806,7 @@
         <v>14</v>
       </c>
       <c r="B28" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C28">
         <v>1</v>
@@ -802,7 +817,7 @@
         <v>14</v>
       </c>
       <c r="B29" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C29">
         <v>1</v>
@@ -813,7 +828,7 @@
         <v>14</v>
       </c>
       <c r="B30" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C30">
         <v>1</v>
@@ -824,7 +839,7 @@
         <v>14</v>
       </c>
       <c r="B31" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C31">
         <v>1</v>
@@ -835,7 +850,7 @@
         <v>3</v>
       </c>
       <c r="B32" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C32">
         <v>1</v>
@@ -846,7 +861,7 @@
         <v>3</v>
       </c>
       <c r="B33" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C33">
         <v>1</v>
@@ -857,7 +872,7 @@
         <v>3</v>
       </c>
       <c r="B34" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C34">
         <v>1</v>
@@ -868,7 +883,7 @@
         <v>3</v>
       </c>
       <c r="B35" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C35">
         <v>1</v>
@@ -879,7 +894,7 @@
         <v>3</v>
       </c>
       <c r="B36" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C36">
         <v>1</v>
@@ -890,7 +905,7 @@
         <v>20</v>
       </c>
       <c r="B37" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C37">
         <v>1</v>
@@ -901,7 +916,7 @@
         <v>3</v>
       </c>
       <c r="B38" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C38">
         <v>1</v>
@@ -912,7 +927,7 @@
         <v>3</v>
       </c>
       <c r="B39" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C39">
         <v>1</v>
@@ -923,7 +938,7 @@
         <v>3</v>
       </c>
       <c r="B40" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C40">
         <v>1</v>
@@ -934,7 +949,7 @@
         <v>14</v>
       </c>
       <c r="B41" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C41">
         <v>1</v>
@@ -945,7 +960,7 @@
         <v>21</v>
       </c>
       <c r="B42" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C42">
         <v>1</v>
@@ -956,7 +971,7 @@
         <v>21</v>
       </c>
       <c r="B43" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C43">
         <v>1</v>
@@ -967,7 +982,7 @@
         <v>21</v>
       </c>
       <c r="B44" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C44">
         <v>1</v>
@@ -978,7 +993,7 @@
         <v>21</v>
       </c>
       <c r="B45" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C45">
         <v>1</v>
@@ -989,7 +1004,7 @@
         <v>22</v>
       </c>
       <c r="B46" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C46">
         <v>1</v>
@@ -1000,7 +1015,7 @@
         <v>3</v>
       </c>
       <c r="B47" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C47">
         <v>1</v>
@@ -1011,7 +1026,7 @@
         <v>9</v>
       </c>
       <c r="B48" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C48">
         <v>1</v>
@@ -1022,7 +1037,7 @@
         <v>3</v>
       </c>
       <c r="B49" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C49">
         <v>1</v>
@@ -1033,7 +1048,7 @@
         <v>21</v>
       </c>
       <c r="B50" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C50">
         <v>1</v>
@@ -1044,7 +1059,7 @@
         <v>21</v>
       </c>
       <c r="B51" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C51">
         <v>1</v>
@@ -1055,7 +1070,7 @@
         <v>23</v>
       </c>
       <c r="B52" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C52">
         <v>1</v>
@@ -1066,7 +1081,7 @@
         <v>24</v>
       </c>
       <c r="B53" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C53">
         <v>1</v>
@@ -1077,7 +1092,7 @@
         <v>25</v>
       </c>
       <c r="B54" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C54">
         <v>1</v>
@@ -1088,7 +1103,7 @@
         <v>26</v>
       </c>
       <c r="B55" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C55">
         <v>1</v>
@@ -1099,7 +1114,7 @@
         <v>27</v>
       </c>
       <c r="B56" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C56">
         <v>1</v>
@@ -1110,7 +1125,7 @@
         <v>27</v>
       </c>
       <c r="B57" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C57">
         <v>1</v>
@@ -1121,7 +1136,7 @@
         <v>21</v>
       </c>
       <c r="B58" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C58">
         <v>1</v>
@@ -1132,7 +1147,7 @@
         <v>27</v>
       </c>
       <c r="B59" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C59">
         <v>1</v>
@@ -1143,7 +1158,7 @@
         <v>21</v>
       </c>
       <c r="B60" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C60">
         <v>1</v>
@@ -1154,7 +1169,7 @@
         <v>26</v>
       </c>
       <c r="B61" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C61">
         <v>1</v>
@@ -1165,7 +1180,7 @@
         <v>21</v>
       </c>
       <c r="B62" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C62">
         <v>1</v>
@@ -1176,7 +1191,7 @@
         <v>21</v>
       </c>
       <c r="B63" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C63">
         <v>1</v>
@@ -1187,7 +1202,7 @@
         <v>28</v>
       </c>
       <c r="B64" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C64">
         <v>1</v>
@@ -1198,7 +1213,7 @@
         <v>9</v>
       </c>
       <c r="B65" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C65">
         <v>1</v>
@@ -1209,7 +1224,7 @@
         <v>29</v>
       </c>
       <c r="B66" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C66">
         <v>1</v>
@@ -1220,7 +1235,7 @@
         <v>9</v>
       </c>
       <c r="B67" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C67">
         <v>1</v>
@@ -1231,7 +1246,7 @@
         <v>30</v>
       </c>
       <c r="B68" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C68">
         <v>1</v>
@@ -1242,7 +1257,7 @@
         <v>31</v>
       </c>
       <c r="B69" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C69">
         <v>1</v>
@@ -1253,7 +1268,7 @@
         <v>32</v>
       </c>
       <c r="B70" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C70">
         <v>1</v>
@@ -1264,7 +1279,7 @@
         <v>9</v>
       </c>
       <c r="B71" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C71">
         <v>1</v>
@@ -1275,7 +1290,7 @@
         <v>33</v>
       </c>
       <c r="B72" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C72">
         <v>1</v>
@@ -1286,7 +1301,7 @@
         <v>34</v>
       </c>
       <c r="B73" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C73">
         <v>1</v>
@@ -1297,7 +1312,7 @@
         <v>21</v>
       </c>
       <c r="B74" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C74">
         <v>1</v>
@@ -1308,7 +1323,7 @@
         <v>35</v>
       </c>
       <c r="B75" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C75">
         <v>1</v>
@@ -1319,7 +1334,7 @@
         <v>3</v>
       </c>
       <c r="B76" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C76">
         <v>1</v>
@@ -1330,7 +1345,7 @@
         <v>21</v>
       </c>
       <c r="B77" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C77">
         <v>1</v>
@@ -1341,9 +1356,130 @@
         <v>27</v>
       </c>
       <c r="B78" t="s">
+        <v>41</v>
+      </c>
+      <c r="C78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79" t="s">
+        <v>21</v>
+      </c>
+      <c r="B79" t="s">
+        <v>41</v>
+      </c>
+      <c r="C79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80" t="s">
         <v>36</v>
       </c>
-      <c r="C78">
+      <c r="B80" t="s">
+        <v>41</v>
+      </c>
+      <c r="C80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81" t="s">
+        <v>3</v>
+      </c>
+      <c r="B81" t="s">
+        <v>41</v>
+      </c>
+      <c r="C81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82" t="s">
+        <v>37</v>
+      </c>
+      <c r="B82" t="s">
+        <v>41</v>
+      </c>
+      <c r="C82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83" t="s">
+        <v>14</v>
+      </c>
+      <c r="B83" t="s">
+        <v>41</v>
+      </c>
+      <c r="C83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84" t="s">
+        <v>27</v>
+      </c>
+      <c r="B84" t="s">
+        <v>41</v>
+      </c>
+      <c r="C84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85" t="s">
+        <v>38</v>
+      </c>
+      <c r="B85" t="s">
+        <v>41</v>
+      </c>
+      <c r="C85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86" t="s">
+        <v>38</v>
+      </c>
+      <c r="B86" t="s">
+        <v>41</v>
+      </c>
+      <c r="C86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87" t="s">
+        <v>39</v>
+      </c>
+      <c r="B87" t="s">
+        <v>41</v>
+      </c>
+      <c r="C87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88" t="s">
+        <v>40</v>
+      </c>
+      <c r="B88" t="s">
+        <v>41</v>
+      </c>
+      <c r="C88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89" t="s">
+        <v>39</v>
+      </c>
+      <c r="B89" t="s">
+        <v>41</v>
+      </c>
+      <c r="C89">
         <v>1</v>
       </c>
     </row>

--- a/recognized_sets/recognized_qu.xlsx
+++ b/recognized_sets/recognized_qu.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="44">
   <si>
     <t>text</t>
   </si>
@@ -138,6 +138,12 @@
   </si>
   <si>
     <t>мис   спрашивать</t>
+  </si>
+  <si>
+    <t>мис   как   дело ?</t>
+  </si>
+  <si>
+    <t>мис   как   погода ?</t>
   </si>
   <si>
     <t>Вопрос</t>
@@ -498,7 +504,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C89"/>
+  <dimension ref="A1:C91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -520,7 +526,7 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -531,7 +537,7 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -542,7 +548,7 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -553,7 +559,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -564,7 +570,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -575,7 +581,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -586,7 +592,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -597,7 +603,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -608,7 +614,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -619,7 +625,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -630,7 +636,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -641,7 +647,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -652,7 +658,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -663,7 +669,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -674,7 +680,7 @@
         <v>3</v>
       </c>
       <c r="B16" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -685,7 +691,7 @@
         <v>3</v>
       </c>
       <c r="B17" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -696,7 +702,7 @@
         <v>14</v>
       </c>
       <c r="B18" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -707,7 +713,7 @@
         <v>15</v>
       </c>
       <c r="B19" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -718,7 +724,7 @@
         <v>16</v>
       </c>
       <c r="B20" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C20">
         <v>1</v>
@@ -729,7 +735,7 @@
         <v>17</v>
       </c>
       <c r="B21" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -740,7 +746,7 @@
         <v>3</v>
       </c>
       <c r="B22" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C22">
         <v>1</v>
@@ -751,7 +757,7 @@
         <v>14</v>
       </c>
       <c r="B23" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C23">
         <v>1</v>
@@ -762,7 +768,7 @@
         <v>18</v>
       </c>
       <c r="B24" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C24">
         <v>1</v>
@@ -773,7 +779,7 @@
         <v>19</v>
       </c>
       <c r="B25" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C25">
         <v>1</v>
@@ -784,7 +790,7 @@
         <v>3</v>
       </c>
       <c r="B26" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C26">
         <v>1</v>
@@ -795,7 +801,7 @@
         <v>14</v>
       </c>
       <c r="B27" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C27">
         <v>1</v>
@@ -806,7 +812,7 @@
         <v>14</v>
       </c>
       <c r="B28" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C28">
         <v>1</v>
@@ -817,7 +823,7 @@
         <v>14</v>
       </c>
       <c r="B29" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C29">
         <v>1</v>
@@ -828,7 +834,7 @@
         <v>14</v>
       </c>
       <c r="B30" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C30">
         <v>1</v>
@@ -839,7 +845,7 @@
         <v>14</v>
       </c>
       <c r="B31" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C31">
         <v>1</v>
@@ -850,7 +856,7 @@
         <v>3</v>
       </c>
       <c r="B32" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C32">
         <v>1</v>
@@ -861,7 +867,7 @@
         <v>3</v>
       </c>
       <c r="B33" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C33">
         <v>1</v>
@@ -872,7 +878,7 @@
         <v>3</v>
       </c>
       <c r="B34" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C34">
         <v>1</v>
@@ -883,7 +889,7 @@
         <v>3</v>
       </c>
       <c r="B35" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C35">
         <v>1</v>
@@ -894,7 +900,7 @@
         <v>3</v>
       </c>
       <c r="B36" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C36">
         <v>1</v>
@@ -905,7 +911,7 @@
         <v>20</v>
       </c>
       <c r="B37" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C37">
         <v>1</v>
@@ -916,7 +922,7 @@
         <v>3</v>
       </c>
       <c r="B38" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C38">
         <v>1</v>
@@ -927,7 +933,7 @@
         <v>3</v>
       </c>
       <c r="B39" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C39">
         <v>1</v>
@@ -938,7 +944,7 @@
         <v>3</v>
       </c>
       <c r="B40" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C40">
         <v>1</v>
@@ -949,7 +955,7 @@
         <v>14</v>
       </c>
       <c r="B41" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C41">
         <v>1</v>
@@ -960,7 +966,7 @@
         <v>21</v>
       </c>
       <c r="B42" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C42">
         <v>1</v>
@@ -971,7 +977,7 @@
         <v>21</v>
       </c>
       <c r="B43" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C43">
         <v>1</v>
@@ -982,7 +988,7 @@
         <v>21</v>
       </c>
       <c r="B44" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C44">
         <v>1</v>
@@ -993,7 +999,7 @@
         <v>21</v>
       </c>
       <c r="B45" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C45">
         <v>1</v>
@@ -1004,7 +1010,7 @@
         <v>22</v>
       </c>
       <c r="B46" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C46">
         <v>1</v>
@@ -1015,7 +1021,7 @@
         <v>3</v>
       </c>
       <c r="B47" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C47">
         <v>1</v>
@@ -1026,7 +1032,7 @@
         <v>9</v>
       </c>
       <c r="B48" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C48">
         <v>1</v>
@@ -1037,7 +1043,7 @@
         <v>3</v>
       </c>
       <c r="B49" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C49">
         <v>1</v>
@@ -1048,7 +1054,7 @@
         <v>21</v>
       </c>
       <c r="B50" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C50">
         <v>1</v>
@@ -1059,7 +1065,7 @@
         <v>21</v>
       </c>
       <c r="B51" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C51">
         <v>1</v>
@@ -1070,7 +1076,7 @@
         <v>23</v>
       </c>
       <c r="B52" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C52">
         <v>1</v>
@@ -1081,7 +1087,7 @@
         <v>24</v>
       </c>
       <c r="B53" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C53">
         <v>1</v>
@@ -1092,7 +1098,7 @@
         <v>25</v>
       </c>
       <c r="B54" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C54">
         <v>1</v>
@@ -1103,7 +1109,7 @@
         <v>26</v>
       </c>
       <c r="B55" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C55">
         <v>1</v>
@@ -1114,7 +1120,7 @@
         <v>27</v>
       </c>
       <c r="B56" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C56">
         <v>1</v>
@@ -1125,7 +1131,7 @@
         <v>27</v>
       </c>
       <c r="B57" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C57">
         <v>1</v>
@@ -1136,7 +1142,7 @@
         <v>21</v>
       </c>
       <c r="B58" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C58">
         <v>1</v>
@@ -1147,7 +1153,7 @@
         <v>27</v>
       </c>
       <c r="B59" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C59">
         <v>1</v>
@@ -1158,7 +1164,7 @@
         <v>21</v>
       </c>
       <c r="B60" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C60">
         <v>1</v>
@@ -1169,7 +1175,7 @@
         <v>26</v>
       </c>
       <c r="B61" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C61">
         <v>1</v>
@@ -1180,7 +1186,7 @@
         <v>21</v>
       </c>
       <c r="B62" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C62">
         <v>1</v>
@@ -1191,7 +1197,7 @@
         <v>21</v>
       </c>
       <c r="B63" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C63">
         <v>1</v>
@@ -1202,7 +1208,7 @@
         <v>28</v>
       </c>
       <c r="B64" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C64">
         <v>1</v>
@@ -1213,7 +1219,7 @@
         <v>9</v>
       </c>
       <c r="B65" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C65">
         <v>1</v>
@@ -1224,7 +1230,7 @@
         <v>29</v>
       </c>
       <c r="B66" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C66">
         <v>1</v>
@@ -1235,7 +1241,7 @@
         <v>9</v>
       </c>
       <c r="B67" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C67">
         <v>1</v>
@@ -1246,7 +1252,7 @@
         <v>30</v>
       </c>
       <c r="B68" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C68">
         <v>1</v>
@@ -1257,7 +1263,7 @@
         <v>31</v>
       </c>
       <c r="B69" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C69">
         <v>1</v>
@@ -1268,7 +1274,7 @@
         <v>32</v>
       </c>
       <c r="B70" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C70">
         <v>1</v>
@@ -1279,7 +1285,7 @@
         <v>9</v>
       </c>
       <c r="B71" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C71">
         <v>1</v>
@@ -1290,7 +1296,7 @@
         <v>33</v>
       </c>
       <c r="B72" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C72">
         <v>1</v>
@@ -1301,7 +1307,7 @@
         <v>34</v>
       </c>
       <c r="B73" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C73">
         <v>1</v>
@@ -1312,7 +1318,7 @@
         <v>21</v>
       </c>
       <c r="B74" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C74">
         <v>1</v>
@@ -1323,7 +1329,7 @@
         <v>35</v>
       </c>
       <c r="B75" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C75">
         <v>1</v>
@@ -1334,7 +1340,7 @@
         <v>3</v>
       </c>
       <c r="B76" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C76">
         <v>1</v>
@@ -1345,7 +1351,7 @@
         <v>21</v>
       </c>
       <c r="B77" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C77">
         <v>1</v>
@@ -1356,7 +1362,7 @@
         <v>27</v>
       </c>
       <c r="B78" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C78">
         <v>1</v>
@@ -1367,7 +1373,7 @@
         <v>21</v>
       </c>
       <c r="B79" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C79">
         <v>1</v>
@@ -1378,7 +1384,7 @@
         <v>36</v>
       </c>
       <c r="B80" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C80">
         <v>1</v>
@@ -1389,7 +1395,7 @@
         <v>3</v>
       </c>
       <c r="B81" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C81">
         <v>1</v>
@@ -1400,7 +1406,7 @@
         <v>37</v>
       </c>
       <c r="B82" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C82">
         <v>1</v>
@@ -1411,7 +1417,7 @@
         <v>14</v>
       </c>
       <c r="B83" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C83">
         <v>1</v>
@@ -1422,7 +1428,7 @@
         <v>27</v>
       </c>
       <c r="B84" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C84">
         <v>1</v>
@@ -1433,7 +1439,7 @@
         <v>38</v>
       </c>
       <c r="B85" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C85">
         <v>1</v>
@@ -1444,7 +1450,7 @@
         <v>38</v>
       </c>
       <c r="B86" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C86">
         <v>1</v>
@@ -1455,7 +1461,7 @@
         <v>39</v>
       </c>
       <c r="B87" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C87">
         <v>1</v>
@@ -1466,7 +1472,7 @@
         <v>40</v>
       </c>
       <c r="B88" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C88">
         <v>1</v>
@@ -1477,9 +1483,31 @@
         <v>39</v>
       </c>
       <c r="B89" t="s">
+        <v>43</v>
+      </c>
+      <c r="C89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90" t="s">
         <v>41</v>
       </c>
-      <c r="C89">
+      <c r="B90" t="s">
+        <v>43</v>
+      </c>
+      <c r="C90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91" t="s">
+        <v>42</v>
+      </c>
+      <c r="B91" t="s">
+        <v>43</v>
+      </c>
+      <c r="C91">
         <v>1</v>
       </c>
     </row>

--- a/recognized_sets/recognized_qu.xlsx
+++ b/recognized_sets/recognized_qu.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="44">
   <si>
     <t>text</t>
   </si>
@@ -504,7 +504,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C91"/>
+  <dimension ref="A1:C92"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1511,6 +1511,17 @@
         <v>1</v>
       </c>
     </row>
+    <row r="92" spans="1:3">
+      <c r="A92" t="s">
+        <v>41</v>
+      </c>
+      <c r="B92" t="s">
+        <v>43</v>
+      </c>
+      <c r="C92">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/recognized_sets/recognized_qu.xlsx
+++ b/recognized_sets/recognized_qu.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="15">
   <si>
     <t>text</t>
   </si>
@@ -35,6 +35,24 @@
   </si>
   <si>
     <t xml:space="preserve">  как   дело ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  как   погода ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  фуфпыфпыф</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  фырпфыпф</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  как   ты   добираться   сюда ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  дообучаться</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  даров</t>
   </si>
   <si>
     <t>Вопрос</t>
@@ -398,7 +416,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -420,7 +438,7 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -431,7 +449,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -442,7 +460,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -453,7 +471,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -464,7 +482,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -475,7 +493,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -486,7 +504,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -497,7 +515,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -508,7 +526,7 @@
         <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -519,7 +537,7 @@
         <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -530,7 +548,7 @@
         <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -541,10 +559,109 @@
         <v>6</v>
       </c>
       <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
         <v>7</v>
       </c>
-      <c r="C13">
-        <v>1</v>
+      <c r="B14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>12</v>
+      </c>
+      <c r="B22" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/recognized_sets/recognized_qu.xlsx
+++ b/recognized_sets/recognized_qu.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="20">
   <si>
     <t>text</t>
   </si>
@@ -53,6 +53,21 @@
   </si>
   <si>
     <t xml:space="preserve">  даров</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  привея</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  привет</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  запорашивать   нахальный   пух ,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  запорашивать   нахальный   пух</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  ?</t>
   </si>
   <si>
     <t>Вопрос</t>
@@ -416,7 +431,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -438,7 +453,7 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -449,7 +464,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -460,7 +475,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -471,7 +486,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -482,7 +497,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -493,7 +508,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -504,7 +519,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -515,7 +530,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -526,7 +541,7 @@
         <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -537,7 +552,7 @@
         <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -548,7 +563,7 @@
         <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -559,7 +574,7 @@
         <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -570,7 +585,7 @@
         <v>7</v>
       </c>
       <c r="B14" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -581,7 +596,7 @@
         <v>6</v>
       </c>
       <c r="B15" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -592,7 +607,7 @@
         <v>6</v>
       </c>
       <c r="B16" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -603,7 +618,7 @@
         <v>8</v>
       </c>
       <c r="B17" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -614,7 +629,7 @@
         <v>9</v>
       </c>
       <c r="B18" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -625,7 +640,7 @@
         <v>10</v>
       </c>
       <c r="B19" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -636,7 +651,7 @@
         <v>10</v>
       </c>
       <c r="B20" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C20">
         <v>1</v>
@@ -647,7 +662,7 @@
         <v>11</v>
       </c>
       <c r="B21" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -658,10 +673,175 @@
         <v>12</v>
       </c>
       <c r="B22" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>13</v>
+      </c>
+      <c r="B23" t="s">
+        <v>19</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
         <v>14</v>
       </c>
-      <c r="C22">
-        <v>0</v>
+      <c r="B24" t="s">
+        <v>18</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
+        <v>6</v>
+      </c>
+      <c r="B25" t="s">
+        <v>18</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
+        <v>6</v>
+      </c>
+      <c r="B26" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
+        <v>6</v>
+      </c>
+      <c r="B27" t="s">
+        <v>18</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
+        <v>15</v>
+      </c>
+      <c r="B28" t="s">
+        <v>19</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" t="s">
+        <v>15</v>
+      </c>
+      <c r="B29" t="s">
+        <v>19</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" t="s">
+        <v>15</v>
+      </c>
+      <c r="B30" t="s">
+        <v>19</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" t="s">
+        <v>15</v>
+      </c>
+      <c r="B31" t="s">
+        <v>19</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" t="s">
+        <v>15</v>
+      </c>
+      <c r="B32" t="s">
+        <v>19</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" t="s">
+        <v>15</v>
+      </c>
+      <c r="B33" t="s">
+        <v>19</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" t="s">
+        <v>16</v>
+      </c>
+      <c r="B34" t="s">
+        <v>19</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" t="s">
+        <v>17</v>
+      </c>
+      <c r="B35" t="s">
+        <v>18</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" t="s">
+        <v>7</v>
+      </c>
+      <c r="B36" t="s">
+        <v>18</v>
+      </c>
+      <c r="C36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" t="s">
+        <v>6</v>
+      </c>
+      <c r="B37" t="s">
+        <v>18</v>
+      </c>
+      <c r="C37">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/recognized_sets/recognized_qu.xlsx
+++ b/recognized_sets/recognized_qu.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="22">
   <si>
     <t>text</t>
   </si>
@@ -437,7 +437,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C41"/>
+  <dimension ref="A1:C43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -894,6 +894,28 @@
         <v>1</v>
       </c>
     </row>
+    <row r="42" spans="1:3">
+      <c r="A42" t="s">
+        <v>19</v>
+      </c>
+      <c r="B42" t="s">
+        <v>20</v>
+      </c>
+      <c r="C42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" t="s">
+        <v>19</v>
+      </c>
+      <c r="B43" t="s">
+        <v>20</v>
+      </c>
+      <c r="C43">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/recognized_sets/recognized_qu.xlsx
+++ b/recognized_sets/recognized_qu.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="22">
   <si>
     <t>text</t>
   </si>
@@ -437,7 +437,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C43"/>
+  <dimension ref="A1:C44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -916,6 +916,17 @@
         <v>1</v>
       </c>
     </row>
+    <row r="44" spans="1:3">
+      <c r="A44" t="s">
+        <v>19</v>
+      </c>
+      <c r="B44" t="s">
+        <v>20</v>
+      </c>
+      <c r="C44">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
